--- a/CodeBook_9_27_2020 copy.xlsx
+++ b/CodeBook_9_27_2020 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BA75A-F615-7046-987C-2D47CB04D211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8456A22-34C2-6047-8331-862F42CC6EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="3340" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Closed non-essential businesses</t>
-  </si>
-  <si>
-    <t>End/relax stay at home/shelter in place</t>
   </si>
   <si>
     <t>Stay at home/ shelter in place</t>
@@ -1266,9 +1263,6 @@
     <t>The date a state's stay at home/shelter in place order went into effect. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
   </si>
   <si>
-    <t>The date a state ended/relaxed their stay at home/shelter in place order. Order must apply to entire state</t>
-  </si>
-  <si>
     <t>The date a state closed non-essential businesses statewide. Only included directives/orders. Did not include guidance or recommendations. Order must apply to entire state</t>
   </si>
   <si>
@@ -1846,6 +1840,12 @@
   </si>
   <si>
     <t>If a state issued a stay at home order that did not order the general public to stay at home but instead applied to portions of the population, buisnesses closures, or suggested but did not order we have recorded the date here to provide clarity to those using other databases.</t>
+  </si>
+  <si>
+    <t>End stay at home/shelter in place</t>
+  </si>
+  <si>
+    <t>The date a state ended their stay at home/shelter in place order or allowed it to expire. Order must apply to entire state</t>
   </si>
 </sst>
 </file>
@@ -2400,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -2418,45 +2418,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="3" spans="1:9" ht="409.6">
       <c r="A3" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2485,47 +2485,47 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="328">
       <c r="A4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>33</v>
@@ -2537,20 +2537,20 @@
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -2562,22 +2562,22 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45">
       <c r="A7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>31</v>
@@ -2589,22 +2589,22 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2616,20 +2616,20 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="A9" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -2641,22 +2641,22 @@
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
-      <c r="A10" s="6" t="s">
-        <v>246</v>
+      <c r="A10" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -2668,22 +2668,22 @@
         <v>4</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="90">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -2695,20 +2695,20 @@
         <v>4</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="45">
-      <c r="A12" s="6" t="s">
-        <v>245</v>
+      <c r="A12" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>133</v>
+        <v>587</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>395</v>
+        <v>588</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>29</v>
@@ -2720,22 +2720,22 @@
         <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
-      <c r="A13" s="6" t="s">
-        <v>244</v>
+      <c r="A13" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -2747,22 +2747,22 @@
         <v>4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
-      <c r="A14" s="6" t="s">
-        <v>243</v>
+      <c r="A14" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>30</v>
@@ -2774,22 +2774,22 @@
         <v>4</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="90">
-      <c r="A15" s="6" t="s">
-        <v>242</v>
+      <c r="A15" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>29</v>
@@ -2801,22 +2801,22 @@
         <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="90">
       <c r="A16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
@@ -2828,22 +2828,22 @@
         <v>4</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
@@ -2855,22 +2855,22 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="30">
       <c r="A18" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -2882,22 +2882,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="28">
       <c r="A19" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -2909,22 +2909,22 @@
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="56">
       <c r="A20" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>466</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>468</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>28</v>
@@ -2936,20 +2936,20 @@
         <v>4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="70">
       <c r="A21" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>470</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>472</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>28</v>
@@ -2961,20 +2961,20 @@
         <v>4</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="60">
       <c r="A22" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>28</v>
@@ -2986,20 +2986,20 @@
         <v>4</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
@@ -3011,22 +3011,22 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
@@ -3038,20 +3038,20 @@
         <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
@@ -3063,20 +3063,20 @@
         <v>4</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>27</v>
@@ -3088,24 +3088,24 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I26" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>26</v>
@@ -3117,20 +3117,20 @@
         <v>4</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="45">
       <c r="A28" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -3142,20 +3142,20 @@
         <v>4</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="60">
       <c r="A29" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>25</v>
@@ -3167,22 +3167,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="45">
       <c r="A30" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>26</v>
@@ -3194,20 +3194,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="45">
       <c r="A31" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>25</v>
@@ -3219,20 +3219,20 @@
         <v>4</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>26</v>
@@ -3244,20 +3244,20 @@
         <v>4</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="45">
       <c r="A33" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>25</v>
@@ -3269,20 +3269,20 @@
         <v>4</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="90">
       <c r="A34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>26</v>
@@ -3294,20 +3294,20 @@
         <v>4</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="75">
       <c r="A35" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -3319,20 +3319,20 @@
         <v>4</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="45">
       <c r="A36" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>25</v>
@@ -3344,20 +3344,20 @@
         <v>4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="45">
       <c r="A37" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>25</v>
@@ -3369,20 +3369,20 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="45">
       <c r="A38" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>25</v>
@@ -3394,22 +3394,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90">
       <c r="A39" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3421,22 +3421,22 @@
         <v>4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
       <c r="A40" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3448,22 +3448,22 @@
         <v>4</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60">
       <c r="A41" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3475,22 +3475,22 @@
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75">
       <c r="A42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
@@ -3502,22 +3502,22 @@
         <v>4</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="C43" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>24</v>
@@ -3529,20 +3529,20 @@
         <v>4</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" ht="90">
       <c r="A44" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
@@ -3554,22 +3554,22 @@
         <v>4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
       <c r="A45" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>23</v>
@@ -3581,20 +3581,20 @@
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="75">
       <c r="A46" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>441</v>
-      </c>
       <c r="C46" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>23</v>
@@ -3606,20 +3606,20 @@
         <v>4</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="75">
       <c r="A47" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>22</v>
@@ -3631,20 +3631,20 @@
         <v>4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="75">
       <c r="A48" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>22</v>
@@ -3656,20 +3656,20 @@
         <v>4</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="135">
       <c r="A49" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>522</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>22</v>
@@ -3681,23 +3681,23 @@
         <v>4</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="90">
       <c r="A50" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>4</v>
@@ -3706,23 +3706,23 @@
         <v>10</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="60">
       <c r="A51" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>480</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>4</v>
@@ -3731,23 +3731,23 @@
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="45">
       <c r="A52" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>483</v>
-      </c>
       <c r="C52" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>4</v>
@@ -3756,20 +3756,20 @@
         <v>12</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="45">
       <c r="A53" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>22</v>
@@ -3781,20 +3781,20 @@
         <v>4</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="60">
       <c r="A54" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>22</v>
@@ -3806,20 +3806,20 @@
         <v>4</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="60">
       <c r="A55" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>22</v>
@@ -3831,22 +3831,22 @@
         <v>4</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H55" s="30"/>
       <c r="I55" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A56" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -3858,22 +3858,22 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A57" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>22</v>
@@ -3885,22 +3885,22 @@
         <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A58" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>22</v>
@@ -3912,22 +3912,22 @@
         <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A59" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
@@ -3939,22 +3939,22 @@
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A60" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>22</v>
@@ -3966,22 +3966,22 @@
         <v>4</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A61" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>22</v>
@@ -3993,22 +3993,22 @@
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A62" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>22</v>
@@ -4020,22 +4020,22 @@
         <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A63" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>22</v>
@@ -4047,22 +4047,22 @@
         <v>4</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A64" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>22</v>
@@ -4074,22 +4074,22 @@
         <v>4</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A65" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
@@ -4101,22 +4101,22 @@
         <v>4</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A66" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>22</v>
@@ -4128,22 +4128,22 @@
         <v>4</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A67" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>22</v>
@@ -4155,22 +4155,22 @@
         <v>4</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H67" s="29"/>
       <c r="I67" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="45">
       <c r="A68" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>22</v>
@@ -4182,20 +4182,20 @@
         <v>4</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H68" s="34"/>
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9" ht="60">
       <c r="A69" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
@@ -4207,22 +4207,22 @@
         <v>4</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="90">
       <c r="A70" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>21</v>
@@ -4234,22 +4234,22 @@
         <v>4</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="60">
       <c r="A71" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>21</v>
@@ -4261,22 +4261,22 @@
         <v>4</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="90">
       <c r="A72" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>21</v>
@@ -4288,24 +4288,24 @@
         <v>3</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I72" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="45">
       <c r="A73" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>17</v>
@@ -4317,22 +4317,22 @@
         <v>4</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
@@ -4344,20 +4344,20 @@
         <v>4</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="30">
       <c r="A75" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>17</v>
@@ -4369,24 +4369,24 @@
         <v>3</v>
       </c>
       <c r="G75" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I75" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="45">
       <c r="A76" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>17</v>
@@ -4398,20 +4398,20 @@
         <v>4</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="45">
       <c r="A77" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
@@ -4423,20 +4423,20 @@
         <v>4</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" ht="90">
       <c r="A78" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>17</v>
@@ -4448,24 +4448,24 @@
         <v>3</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I78" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="60">
       <c r="A79" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>17</v>
@@ -4477,24 +4477,24 @@
         <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H79" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I79" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30">
       <c r="A80" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>20</v>
@@ -4506,24 +4506,24 @@
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H80" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I80" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>20</v>
@@ -4535,22 +4535,22 @@
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>20</v>
@@ -4562,22 +4562,22 @@
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>20</v>
@@ -4589,22 +4589,22 @@
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="30">
       <c r="A84" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>20</v>
@@ -4616,22 +4616,22 @@
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>20</v>
@@ -4643,22 +4643,22 @@
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>20</v>
@@ -4670,24 +4670,24 @@
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I86" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>20</v>
@@ -4699,22 +4699,22 @@
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="30">
       <c r="A88" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>20</v>
@@ -4726,22 +4726,22 @@
         <v>3</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="30">
       <c r="A89" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>20</v>
@@ -4753,22 +4753,22 @@
         <v>3</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="30">
       <c r="A90" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>20</v>
@@ -4780,22 +4780,22 @@
         <v>3</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>20</v>
@@ -4807,22 +4807,22 @@
         <v>3</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>20</v>
@@ -4834,24 +4834,24 @@
         <v>3</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I92" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>20</v>
@@ -4863,22 +4863,22 @@
         <v>3</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>20</v>
@@ -4890,22 +4890,22 @@
         <v>3</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>20</v>
@@ -4917,22 +4917,22 @@
         <v>3</v>
       </c>
       <c r="G95" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>20</v>
@@ -4944,22 +4944,22 @@
         <v>3</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>20</v>
@@ -4971,22 +4971,22 @@
         <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>20</v>
@@ -4998,24 +4998,24 @@
         <v>3</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I98" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30">
       <c r="A99" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>20</v>
@@ -5027,22 +5027,22 @@
         <v>3</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="30">
       <c r="A100" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>20</v>
@@ -5054,22 +5054,22 @@
         <v>3</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>20</v>
@@ -5081,22 +5081,22 @@
         <v>3</v>
       </c>
       <c r="G101" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>20</v>
@@ -5108,22 +5108,22 @@
         <v>3</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>20</v>
@@ -5135,22 +5135,22 @@
         <v>3</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" ht="30">
       <c r="A104" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>20</v>
@@ -5162,22 +5162,22 @@
         <v>3</v>
       </c>
       <c r="G104" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H104" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="30">
       <c r="A105" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>20</v>
@@ -5189,22 +5189,22 @@
         <v>3</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>20</v>
@@ -5216,22 +5216,22 @@
         <v>3</v>
       </c>
       <c r="G106" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H106" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:9" ht="30">
       <c r="A107" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>20</v>
@@ -5243,22 +5243,22 @@
         <v>3</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I107" s="19"/>
     </row>
     <row r="108" spans="1:9" ht="30">
       <c r="A108" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>20</v>
@@ -5270,22 +5270,22 @@
         <v>3</v>
       </c>
       <c r="G108" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" ht="30">
       <c r="A109" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>20</v>
@@ -5297,22 +5297,22 @@
         <v>3</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" ht="30">
       <c r="A110" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>20</v>
@@ -5324,22 +5324,22 @@
         <v>3</v>
       </c>
       <c r="G110" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" ht="30">
       <c r="A111" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>20</v>
@@ -5351,22 +5351,22 @@
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" ht="30">
       <c r="A112" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>20</v>
@@ -5378,22 +5378,22 @@
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="45">
       <c r="A113" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>19</v>
@@ -5405,20 +5405,20 @@
         <v>4</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" ht="45">
       <c r="A114" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>19</v>
@@ -5430,23 +5430,23 @@
         <v>4</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:9" ht="30">
       <c r="A115" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>551</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>12</v>
@@ -5455,20 +5455,20 @@
         <v>4</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" ht="75">
       <c r="A116" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>19</v>
@@ -5480,24 +5480,24 @@
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I116" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="75">
       <c r="A117" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>19</v>
@@ -5509,24 +5509,24 @@
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H117" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I117" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="75">
       <c r="A118" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>19</v>
@@ -5538,24 +5538,24 @@
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I118" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="75">
       <c r="A119" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>19</v>
@@ -5567,24 +5567,24 @@
         <v>3</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I119" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="45">
       <c r="A120" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>17</v>
@@ -5596,20 +5596,20 @@
         <v>4</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="19"/>
     </row>
     <row r="121" spans="1:9" ht="45">
       <c r="A121" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>17</v>
@@ -5621,20 +5621,20 @@
         <v>4</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="75">
       <c r="A122" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>18</v>
@@ -5646,22 +5646,22 @@
         <v>3</v>
       </c>
       <c r="G122" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" ht="60">
       <c r="A123" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>18</v>
@@ -5673,22 +5673,22 @@
         <v>4</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="60">
       <c r="A124" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>18</v>
@@ -5700,22 +5700,22 @@
         <v>3</v>
       </c>
       <c r="G124" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" ht="75">
       <c r="A125" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>18</v>
@@ -5730,19 +5730,19 @@
         <v>2</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" ht="75">
       <c r="A126" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>18</v>
@@ -5754,24 +5754,24 @@
         <v>3</v>
       </c>
       <c r="G126" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H126" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I126" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="75">
       <c r="A127" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>18</v>
@@ -5783,24 +5783,24 @@
         <v>3</v>
       </c>
       <c r="G127" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H127" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I127" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="75">
       <c r="A128" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>18</v>
@@ -5812,24 +5812,24 @@
         <v>3</v>
       </c>
       <c r="G128" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H128" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I128" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="60">
       <c r="A129" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>18</v>
@@ -5841,24 +5841,24 @@
         <v>3</v>
       </c>
       <c r="G129" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H129" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I129" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="30">
       <c r="A130" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>18</v>
@@ -5870,22 +5870,22 @@
         <v>3</v>
       </c>
       <c r="G130" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H130" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="I130" s="18"/>
     </row>
     <row r="131" spans="1:9" ht="45">
       <c r="A131" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>18</v>
@@ -5897,22 +5897,22 @@
         <v>7</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="45">
       <c r="A132" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>18</v>
@@ -5924,19 +5924,19 @@
         <v>7</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="60">
       <c r="A133" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>18</v>
@@ -5948,20 +5948,20 @@
         <v>6</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="18"/>
     </row>
     <row r="134" spans="1:9" ht="60">
       <c r="A134" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>17</v>
@@ -5973,22 +5973,22 @@
         <v>6</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="45">
       <c r="A135" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>16</v>
@@ -6000,22 +6000,22 @@
         <v>4</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" ht="30">
       <c r="A136" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>16</v>
@@ -6027,20 +6027,20 @@
         <v>4</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="18"/>
     </row>
     <row r="137" spans="1:9" ht="30">
       <c r="A137" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>16</v>
@@ -6052,20 +6052,20 @@
         <v>4</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" ht="30">
       <c r="A138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>16</v>
@@ -6077,20 +6077,20 @@
         <v>4</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" ht="30">
       <c r="A139" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>16</v>
@@ -6102,20 +6102,20 @@
         <v>4</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="45">
       <c r="A140" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>16</v>
@@ -6127,20 +6127,20 @@
         <v>4</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" ht="60">
       <c r="A141" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>15</v>
@@ -6152,24 +6152,24 @@
         <v>3</v>
       </c>
       <c r="G141" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H141" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H141" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I141" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>15</v>
@@ -6181,24 +6181,24 @@
         <v>3</v>
       </c>
       <c r="G142" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="I142" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>14</v>
@@ -6207,23 +6207,23 @@
         <v>8</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H143" s="6"/>
       <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>13</v>
@@ -6235,22 +6235,22 @@
         <v>2</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H144" s="6"/>
       <c r="I144" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>13</v>
@@ -6259,23 +6259,23 @@
         <v>8</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H145" s="6"/>
       <c r="I145" s="18"/>
     </row>
     <row r="146" spans="1:9" ht="75">
       <c r="A146" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>13</v>
@@ -6287,22 +6287,22 @@
         <v>2</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H146" s="6"/>
       <c r="I146" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="45">
       <c r="A147" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>13</v>
@@ -6314,22 +6314,22 @@
         <v>1</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H147" s="6"/>
       <c r="I147" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="60">
       <c r="A148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B148" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>13</v>
@@ -6341,22 +6341,22 @@
         <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H148" s="6"/>
       <c r="I148" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="75">
       <c r="A149" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>13</v>
@@ -6368,22 +6368,22 @@
         <v>1</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="45">
       <c r="A150" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>13</v>
@@ -6395,22 +6395,22 @@
         <v>0</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="25" customFormat="1" ht="120">
       <c r="A151" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="C151" s="27" t="s">
         <v>458</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>460</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>13</v>
@@ -6419,28 +6419,28 @@
         <v>8</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H151" s="8"/>
       <c r="I151" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="25" customFormat="1" ht="45">
       <c r="A152" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C152" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="B152" s="27" t="s">
+      <c r="D152" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>9</v>
@@ -6449,25 +6449,25 @@
         <v>3</v>
       </c>
       <c r="G152" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H152" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="I152" s="22"/>
     </row>
     <row r="153" spans="1:9" s="25" customFormat="1" ht="60">
       <c r="A153" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="C153" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="B153" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>531</v>
-      </c>
       <c r="D153" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>9</v>
@@ -6476,27 +6476,27 @@
         <v>3</v>
       </c>
       <c r="G153" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H153" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H153" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="I153" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="25" customFormat="1" ht="45">
       <c r="A154" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="C154" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="B154" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>534</v>
-      </c>
       <c r="D154" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>9</v>
@@ -6505,27 +6505,27 @@
         <v>3</v>
       </c>
       <c r="G154" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H154" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H154" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="I154" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="25" customFormat="1" ht="30">
       <c r="A155" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="C155" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="B155" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>537</v>
-      </c>
       <c r="D155" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>9</v>
@@ -6534,25 +6534,25 @@
         <v>3</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I155" s="22"/>
     </row>
     <row r="156" spans="1:9" s="25" customFormat="1" ht="45">
       <c r="A156" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C156" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="B156" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>542</v>
-      </c>
       <c r="D156" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>9</v>
@@ -6561,25 +6561,25 @@
         <v>3</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I156" s="22"/>
     </row>
     <row r="157" spans="1:9" s="25" customFormat="1" ht="45">
       <c r="A157" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="D157" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>4</v>
@@ -6588,7 +6588,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="22"/>
@@ -6636,50 +6636,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" t="s">
         <v>389</v>
-      </c>
-      <c r="B1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
